--- a/data/trans_orig/IP18A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D54A9B6-7535-4E7A-8786-A40C5293658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD110A5-25A4-406B-B85E-8AFE0B3F8222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E8C82D9-5FEE-448C-B133-A0E7C6F7672D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5B6BF7F-93D3-46D8-9BDA-968EC3934964}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="226">
   <si>
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2007 (Tasa respuesta: 86,98%)</t>
   </si>
@@ -104,7 +104,7 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>7,3%</t>
+    <t>7,59%</t>
   </si>
   <si>
     <t>1,81%</t>
@@ -113,13 +113,13 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>3,92%</t>
+    <t>3,61%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>92,7%</t>
+    <t>92,41%</t>
   </si>
   <si>
     <t>98,19%</t>
@@ -128,7 +128,7 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,08%</t>
+    <t>96,39%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -137,610 +137,586 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2015 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3D9AA1-63CC-4870-8494-8A7796A87C51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D5212C-4F38-4D51-85C1-C48DA85516B5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1616,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,10 +1607,10 @@
         <v>407931</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -1646,13 +1622,13 @@
         <v>369415</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>1173</v>
@@ -1661,13 +1637,13 @@
         <v>777347</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,7 +1699,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1735,13 +1711,13 @@
         <v>483</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1750,13 +1726,13 @@
         <v>793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1765,13 +1741,13 @@
         <v>1276</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,10 +1762,10 @@
         <v>139438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -1801,10 +1777,10 @@
         <v>153501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -1816,10 +1792,10 @@
         <v>292939</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -1890,13 +1866,13 @@
         <v>3525</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1905,13 +1881,13 @@
         <v>3704</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1920,13 +1896,13 @@
         <v>7228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1917,13 @@
         <v>620489</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>886</v>
@@ -1956,13 +1932,13 @@
         <v>593603</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>1820</v>
@@ -1971,13 +1947,13 @@
         <v>1214094</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,7 +2009,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D15B311-5AC0-401E-AC4F-637805883D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB52B4AE-B88A-4E01-B3D0-8C44CB063A1E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2070,7 +2046,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2326,13 +2302,13 @@
         <v>740</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2341,13 +2317,13 @@
         <v>656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2356,13 +2332,13 @@
         <v>1396</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,10 +2353,10 @@
         <v>76246</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2392,10 +2368,10 @@
         <v>85368</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2407,10 +2383,10 @@
         <v>161614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2481,13 +2457,13 @@
         <v>2923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2496,13 +2472,13 @@
         <v>4166</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2511,13 +2487,13 @@
         <v>7089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2508,13 @@
         <v>463482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>605</v>
@@ -2547,13 +2523,13 @@
         <v>417540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>1266</v>
@@ -2562,13 +2538,13 @@
         <v>881022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2600,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2636,13 +2612,13 @@
         <v>4214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2651,13 +2627,13 @@
         <v>790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2666,13 +2642,13 @@
         <v>5004</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2663,13 @@
         <v>158710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>219</v>
@@ -2702,10 +2678,10 @@
         <v>155276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2717,13 +2693,13 @@
         <v>313986</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2767,13 @@
         <v>7877</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2806,13 +2782,13 @@
         <v>5612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -2821,13 +2797,13 @@
         <v>13489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2818,13 @@
         <v>699079</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>947</v>
@@ -2857,13 +2833,13 @@
         <v>658183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>1940</v>
@@ -2872,13 +2848,13 @@
         <v>1357263</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,7 +2910,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +2930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6689B4-F315-44E8-87B0-87DE77062658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1255EE00-1871-409E-BEAF-504AB1D8F461}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,7 +2947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3221,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3230,13 +3206,13 @@
         <v>1221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3245,13 +3221,13 @@
         <v>1221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,7 +3245,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3281,10 +3257,10 @@
         <v>53439</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -3296,10 +3272,10 @@
         <v>115504</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3370,13 +3346,13 @@
         <v>8052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3385,13 +3361,13 @@
         <v>5012</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3400,13 +3376,13 @@
         <v>13064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3397,13 @@
         <v>427886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
@@ -3436,13 +3412,13 @@
         <v>428013</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>1259</v>
@@ -3451,13 +3427,13 @@
         <v>855899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3489,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3525,13 +3501,13 @@
         <v>1472</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3546,7 +3522,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3555,13 +3531,13 @@
         <v>2662</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,10 +3552,10 @@
         <v>170205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3591,10 +3567,10 @@
         <v>151471</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3606,13 +3582,13 @@
         <v>321675</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3656,13 @@
         <v>9524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3695,13 +3671,13 @@
         <v>7422</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3710,13 +3686,13 @@
         <v>16946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3707,13 @@
         <v>660156</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>954</v>
@@ -3746,13 +3722,13 @@
         <v>632923</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>1899</v>
@@ -3761,13 +3737,13 @@
         <v>1293079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3799,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3843,7 +3819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124BAB6D-9D7C-4C2D-A679-293620BA76D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9B1EE-7EC0-46FE-B311-3147FE4857B3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,7 +3836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4104,13 +4080,13 @@
         <v>1806</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4125,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4134,13 +4110,13 @@
         <v>1806</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,10 +4131,10 @@
         <v>7050</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -4173,7 +4149,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -4185,10 +4161,10 @@
         <v>13624</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4259,13 +4235,13 @@
         <v>3786</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4274,13 +4250,13 @@
         <v>1362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4289,13 +4265,13 @@
         <v>5148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4286,13 @@
         <v>84196</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>96</v>
@@ -4325,10 +4301,10 @@
         <v>64647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -4340,13 +4316,13 @@
         <v>148843</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4378,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4420,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4429,13 +4405,13 @@
         <v>1512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4444,13 +4420,13 @@
         <v>1512</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,7 +4444,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -4480,13 +4456,13 @@
         <v>25828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="M14" s="7">
         <v>81</v>
@@ -4495,13 +4471,13 @@
         <v>55416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4545,13 @@
         <v>5592</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4584,13 +4560,13 @@
         <v>2873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -4599,13 +4575,13 @@
         <v>8465</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4596,13 @@
         <v>120833</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -4635,13 +4611,13 @@
         <v>97050</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>329</v>
@@ -4650,13 +4626,13 @@
         <v>217883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4688,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAD110A5-25A4-406B-B85E-8AFE0B3F8222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76989BD8-D0F9-450D-A6AB-956DB5E9DE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5B6BF7F-93D3-46D8-9BDA-968EC3934964}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{0A120E22-22D0-4E16-85C3-2929C339270D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="232">
   <si>
     <t>Menores según su última visita al médico fue por dispensación de recetas en 2007 (Tasa respuesta: 86,98%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,10 +80,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,631 +101,640 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,19%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2016 (Tasa respuesta: 90,4%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2012 (Tasa respuesta: 93,33%)</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2016 (Tasa respuesta: 90,4%)</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por dispensación de recetas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
 </sst>
 </file>
@@ -1128,8 +1146,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D5212C-4F38-4D51-85C1-C48DA85516B5}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111C363C-AD94-469A-BD7A-26AD53E59E5F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1261,81 +1279,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1662</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1662</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>70687</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="I5" s="7">
+        <v>72394</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>143081</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,151 +1366,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>70687</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="I6" s="7">
+        <v>74056</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>144743</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2911</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
-        <v>1662</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>1380</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>1662</v>
+        <v>4290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>109</v>
+        <v>557</v>
       </c>
       <c r="D8" s="7">
-        <v>72394</v>
+        <v>369415</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>105</v>
+        <v>616</v>
       </c>
       <c r="I8" s="7">
-        <v>70687</v>
+        <v>407931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>214</v>
+        <v>1173</v>
       </c>
       <c r="N8" s="7">
-        <v>143081</v>
+        <v>777347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,153 +1521,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="D9" s="7">
-        <v>74056</v>
+        <v>372326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>105</v>
+        <v>618</v>
       </c>
       <c r="I9" s="7">
-        <v>70687</v>
+        <v>409311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>216</v>
+        <v>1179</v>
       </c>
       <c r="N9" s="7">
-        <v>144743</v>
+        <v>781637</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1380</v>
+        <v>793</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>2911</v>
+        <v>483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>4290</v>
+        <v>1276</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>616</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>407931</v>
+        <v>153501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>557</v>
+        <v>208</v>
       </c>
       <c r="I11" s="7">
-        <v>369415</v>
+        <v>139438</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1173</v>
+        <v>432</v>
       </c>
       <c r="N11" s="7">
-        <v>777347</v>
+        <v>292939</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,153 +1676,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>618</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>409311</v>
+        <v>154294</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>561</v>
+        <v>209</v>
       </c>
       <c r="I12" s="7">
-        <v>372326</v>
+        <v>139921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1179</v>
+        <v>434</v>
       </c>
       <c r="N12" s="7">
-        <v>781637</v>
+        <v>294215</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>483</v>
+        <v>3704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>793</v>
+        <v>3525</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>1276</v>
+        <v>7228</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>208</v>
+        <v>886</v>
       </c>
       <c r="D14" s="7">
-        <v>139438</v>
+        <v>593603</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>224</v>
+        <v>933</v>
       </c>
       <c r="I14" s="7">
-        <v>153501</v>
+        <v>619763</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
-        <v>432</v>
+        <v>1819</v>
       </c>
       <c r="N14" s="7">
-        <v>292939</v>
+        <v>1213367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,216 +1831,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>209</v>
+        <v>891</v>
       </c>
       <c r="D15" s="7">
-        <v>139921</v>
+        <v>597307</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>938</v>
       </c>
       <c r="I15" s="7">
-        <v>154294</v>
+        <v>623288</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>434</v>
+        <v>1829</v>
       </c>
       <c r="N15" s="7">
-        <v>294215</v>
+        <v>1220595</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7">
-        <v>3525</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3704</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="7">
-        <v>10</v>
-      </c>
-      <c r="N16" s="7">
-        <v>7228</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>934</v>
-      </c>
-      <c r="D17" s="7">
-        <v>620489</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="7">
-        <v>886</v>
-      </c>
-      <c r="I17" s="7">
-        <v>593603</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1820</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1214094</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>939</v>
-      </c>
-      <c r="D18" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>891</v>
-      </c>
-      <c r="I18" s="7">
-        <v>597307</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1830</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1221322</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2029,8 +1897,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB52B4AE-B88A-4E01-B3D0-8C44CB063A1E}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C42BF7A-F59F-4BAE-A7B3-60740247F067}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2147,96 +2015,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>740</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1396</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>85368</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="I5" s="7">
+        <v>76246</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>161614</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,151 +2117,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>86024</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="I6" s="7">
+        <v>76986</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>163010</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>740</v>
+        <v>4166</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>656</v>
+        <v>2923</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>1396</v>
+        <v>7089</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>107</v>
+        <v>605</v>
       </c>
       <c r="D8" s="7">
-        <v>76246</v>
+        <v>417540</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
-        <v>123</v>
+        <v>661</v>
       </c>
       <c r="I8" s="7">
-        <v>85368</v>
+        <v>463482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
-        <v>230</v>
+        <v>1266</v>
       </c>
       <c r="N8" s="7">
-        <v>161614</v>
+        <v>881022</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,153 +2272,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>108</v>
+        <v>611</v>
       </c>
       <c r="D9" s="7">
-        <v>76986</v>
+        <v>421706</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>124</v>
+        <v>665</v>
       </c>
       <c r="I9" s="7">
-        <v>86024</v>
+        <v>466405</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>232</v>
+        <v>1276</v>
       </c>
       <c r="N9" s="7">
-        <v>163010</v>
+        <v>888111</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2923</v>
+        <v>790</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4166</v>
+        <v>4214</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>7089</v>
+        <v>5004</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>661</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>463482</v>
+        <v>155276</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>605</v>
+        <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>417540</v>
+        <v>158710</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="M11" s="7">
-        <v>1266</v>
+        <v>443</v>
       </c>
       <c r="N11" s="7">
-        <v>881022</v>
+        <v>313986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,153 +2427,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>665</v>
+        <v>220</v>
       </c>
       <c r="D12" s="7">
-        <v>466405</v>
+        <v>156066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>611</v>
+        <v>230</v>
       </c>
       <c r="I12" s="7">
-        <v>421706</v>
+        <v>162924</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1276</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>888111</v>
+        <v>318990</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>4214</v>
+        <v>5612</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>790</v>
+        <v>7877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>5004</v>
+        <v>13489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>224</v>
+        <v>947</v>
       </c>
       <c r="D14" s="7">
-        <v>158710</v>
+        <v>658183</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H14" s="7">
-        <v>219</v>
+        <v>992</v>
       </c>
       <c r="I14" s="7">
-        <v>155276</v>
+        <v>698438</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
-        <v>443</v>
+        <v>1939</v>
       </c>
       <c r="N14" s="7">
-        <v>313986</v>
+        <v>1356622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,216 +2582,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>230</v>
+        <v>955</v>
       </c>
       <c r="D15" s="7">
-        <v>162924</v>
+        <v>663795</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>220</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>156066</v>
+        <v>706315</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>450</v>
+        <v>1958</v>
       </c>
       <c r="N15" s="7">
-        <v>318990</v>
+        <v>1370111</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7">
-        <v>7877</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5612</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="7">
-        <v>19</v>
-      </c>
-      <c r="N16" s="7">
-        <v>13489</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>993</v>
-      </c>
-      <c r="D17" s="7">
-        <v>699079</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="7">
-        <v>947</v>
-      </c>
-      <c r="I17" s="7">
-        <v>658183</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1940</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1357263</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1004</v>
-      </c>
-      <c r="D18" s="7">
-        <v>706956</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>955</v>
-      </c>
-      <c r="I18" s="7">
-        <v>663795</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1959</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1370752</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2930,8 +2648,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1255EE00-1871-409E-BEAF-504AB1D8F461}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DE08AC-5349-4DA2-B3B3-7DF09AC1A266}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2947,7 +2665,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3048,88 +2766,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1221</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1221</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53439</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="I5" s="7">
+        <v>62065</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="N5" s="7">
+        <v>115504</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,147 +2868,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54660</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="I6" s="7">
+        <v>62065</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="N6" s="7">
+        <v>116725</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5012</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>1221</v>
+        <v>8052</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>1221</v>
+        <v>13064</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>88</v>
+        <v>648</v>
       </c>
       <c r="D8" s="7">
-        <v>62065</v>
+        <v>428013</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>611</v>
       </c>
       <c r="I8" s="7">
-        <v>53439</v>
+        <v>427886</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
-        <v>168</v>
+        <v>1259</v>
       </c>
       <c r="N8" s="7">
-        <v>115504</v>
+        <v>855899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,153 +3023,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>655</v>
       </c>
       <c r="D9" s="7">
-        <v>62065</v>
+        <v>433025</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>621</v>
       </c>
       <c r="I9" s="7">
-        <v>54660</v>
+        <v>435938</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>170</v>
+        <v>1276</v>
       </c>
       <c r="N9" s="7">
-        <v>116725</v>
+        <v>868963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>8052</v>
+        <v>1189</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>5012</v>
+        <v>1472</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>13064</v>
+        <v>2662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>611</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7">
-        <v>427886</v>
+        <v>151471</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>648</v>
+        <v>246</v>
       </c>
       <c r="I11" s="7">
-        <v>428013</v>
+        <v>170205</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1259</v>
+        <v>472</v>
       </c>
       <c r="N11" s="7">
-        <v>855899</v>
+        <v>321675</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,153 +3178,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>621</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>435938</v>
+        <v>152660</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>655</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>433025</v>
+        <v>171677</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1276</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>868963</v>
+        <v>324337</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>1472</v>
+        <v>7422</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>1189</v>
+        <v>9524</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>2662</v>
+        <v>16946</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>246</v>
+        <v>954</v>
       </c>
       <c r="D14" s="7">
-        <v>170205</v>
+        <v>632923</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>226</v>
+        <v>945</v>
       </c>
       <c r="I14" s="7">
-        <v>151471</v>
+        <v>660157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>472</v>
+        <v>1899</v>
       </c>
       <c r="N14" s="7">
-        <v>321675</v>
+        <v>1293079</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>44</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,216 +3333,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>965</v>
       </c>
       <c r="D15" s="7">
-        <v>171677</v>
+        <v>640345</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>228</v>
+        <v>957</v>
       </c>
       <c r="I15" s="7">
-        <v>152660</v>
+        <v>669681</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>476</v>
+        <v>1922</v>
       </c>
       <c r="N15" s="7">
-        <v>324337</v>
+        <v>1310025</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7">
-        <v>9524</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7422</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" s="7">
-        <v>23</v>
-      </c>
-      <c r="N16" s="7">
-        <v>16946</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>945</v>
-      </c>
-      <c r="D17" s="7">
-        <v>660156</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="7">
-        <v>954</v>
-      </c>
-      <c r="I17" s="7">
-        <v>632923</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1899</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1293079</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>957</v>
-      </c>
-      <c r="D18" s="7">
-        <v>669680</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>965</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640345</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1922</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1310025</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3819,8 +3399,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9B1EE-7EC0-46FE-B311-3147FE4857B3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900E4F4A-386B-46D4-AF4B-630798960C99}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3836,7 +3416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,86 +3519,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1921</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1921</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6545</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7513</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="N5" s="7">
+        <v>14058</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,48 +3619,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6545</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9434</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N6" s="7">
+        <v>15979</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4077,97 +3675,97 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1806</v>
+        <v>1328</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>3795</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>1806</v>
+        <v>5123</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D8" s="7">
-        <v>7050</v>
+        <v>64910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="I8" s="7">
-        <v>6574</v>
+        <v>87454</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="N8" s="7">
-        <v>13624</v>
+        <v>152364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,153 +3774,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>8856</v>
+        <v>66238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7">
-        <v>6574</v>
+        <v>91249</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7">
-        <v>15430</v>
+        <v>157487</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3786</v>
+        <v>1568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1362</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>5148</v>
+        <v>1568</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>84196</v>
+        <v>25963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>64647</v>
+        <v>30909</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="N11" s="7">
-        <v>148843</v>
+        <v>56873</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,153 +3929,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>87982</v>
+        <v>27531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>66009</v>
+        <v>30909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>153991</v>
+        <v>58441</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2896</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5716</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M13" s="7">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1512</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
       <c r="N13" s="7">
-        <v>1512</v>
+        <v>8612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="D14" s="7">
-        <v>29588</v>
+        <v>97418</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="I14" s="7">
-        <v>25828</v>
+        <v>125876</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="N14" s="7">
-        <v>55416</v>
+        <v>223294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,216 +4084,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7">
-        <v>29588</v>
+        <v>100314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="I15" s="7">
-        <v>27340</v>
+        <v>131592</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="N15" s="7">
-        <v>56928</v>
+        <v>231906</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5592</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2873</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M16" s="7">
-        <v>12</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8465</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>181</v>
-      </c>
-      <c r="D17" s="7">
-        <v>120833</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="7">
-        <v>148</v>
-      </c>
-      <c r="I17" s="7">
-        <v>97050</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="7">
-        <v>329</v>
-      </c>
-      <c r="N17" s="7">
-        <v>217883</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>188</v>
-      </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
-      <c r="I18" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>341</v>
-      </c>
-      <c r="N18" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
